--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.12391130944742</v>
+        <v>2.17744</v>
       </c>
       <c r="H2">
-        <v>2.12391130944742</v>
+        <v>6.53232</v>
       </c>
       <c r="I2">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="J2">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.385660944940309</v>
+        <v>0.8894906666666667</v>
       </c>
       <c r="N2">
-        <v>0.385660944940309</v>
+        <v>2.668472</v>
       </c>
       <c r="O2">
-        <v>0.08355543165095289</v>
+        <v>0.1316647303664537</v>
       </c>
       <c r="P2">
-        <v>0.08355543165095289</v>
+        <v>0.1368307050811258</v>
       </c>
       <c r="Q2">
-        <v>0.8191096425709009</v>
+        <v>1.936812557226667</v>
       </c>
       <c r="R2">
-        <v>0.8191096425709009</v>
+        <v>17.43131301504</v>
       </c>
       <c r="S2">
-        <v>0.05853726502986624</v>
+        <v>0.0901861183836925</v>
       </c>
       <c r="T2">
-        <v>0.05853726502986624</v>
+        <v>0.09372464541282077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.12391130944742</v>
+        <v>2.17744</v>
       </c>
       <c r="H3">
-        <v>2.12391130944742</v>
+        <v>6.53232</v>
       </c>
       <c r="I3">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="J3">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43715949470739</v>
+        <v>1.929018</v>
       </c>
       <c r="N3">
-        <v>1.43715949470739</v>
+        <v>5.787053999999999</v>
       </c>
       <c r="O3">
-        <v>0.3113680125171274</v>
+        <v>0.2855382797818778</v>
       </c>
       <c r="P3">
-        <v>0.3113680125171274</v>
+        <v>0.2967416106155693</v>
       </c>
       <c r="Q3">
-        <v>3.052399304288765</v>
+        <v>4.20032095392</v>
       </c>
       <c r="R3">
-        <v>3.052399304288765</v>
+        <v>37.80288858528</v>
       </c>
       <c r="S3">
-        <v>0.2181382049066338</v>
+        <v>0.1955845656753457</v>
       </c>
       <c r="T3">
-        <v>0.2181382049066338</v>
+        <v>0.2032584880541546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.12391130944742</v>
+        <v>2.17744</v>
       </c>
       <c r="H4">
-        <v>2.12391130944742</v>
+        <v>6.53232</v>
       </c>
       <c r="I4">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="J4">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.08596046023676</v>
+        <v>1.949498666666667</v>
       </c>
       <c r="N4">
-        <v>1.08596046023676</v>
+        <v>5.848496</v>
       </c>
       <c r="O4">
-        <v>0.2352789314069486</v>
+        <v>0.2885698815236896</v>
       </c>
       <c r="P4">
-        <v>0.2352789314069486</v>
+        <v>0.2998921597618951</v>
       </c>
       <c r="Q4">
-        <v>2.30648370310958</v>
+        <v>4.244916376746668</v>
       </c>
       <c r="R4">
-        <v>2.30648370310958</v>
+        <v>38.20424739072</v>
       </c>
       <c r="S4">
-        <v>0.1648317158033041</v>
+        <v>0.1976611156581565</v>
       </c>
       <c r="T4">
-        <v>0.1648317158033041</v>
+        <v>0.2054165131949298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.12391130944742</v>
+        <v>2.17744</v>
       </c>
       <c r="H5">
-        <v>2.12391130944742</v>
+        <v>6.53232</v>
       </c>
       <c r="I5">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="J5">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.992441377856166</v>
+        <v>1.222540333333333</v>
       </c>
       <c r="N5">
-        <v>0.992441377856166</v>
+        <v>3.667621</v>
       </c>
       <c r="O5">
-        <v>0.2150175401553118</v>
+        <v>0.180963611404333</v>
       </c>
       <c r="P5">
-        <v>0.2150175401553118</v>
+        <v>0.1880638685361299</v>
       </c>
       <c r="Q5">
-        <v>2.107857466392291</v>
+        <v>2.662008223413334</v>
       </c>
       <c r="R5">
-        <v>2.107857466392291</v>
+        <v>23.95807401072</v>
       </c>
       <c r="S5">
-        <v>0.1506369901447078</v>
+        <v>0.1239542710931637</v>
       </c>
       <c r="T5">
-        <v>0.1506369901447078</v>
+        <v>0.1288177195539676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.12391130944742</v>
+        <v>2.17744</v>
       </c>
       <c r="H6">
-        <v>2.12391130944742</v>
+        <v>6.53232</v>
       </c>
       <c r="I6">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="J6">
-        <v>0.7005800086630115</v>
+        <v>0.6849679343335416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.714407578034416</v>
+        <v>0.765177</v>
       </c>
       <c r="N6">
-        <v>0.714407578034416</v>
+        <v>1.530354</v>
       </c>
       <c r="O6">
-        <v>0.1547800842696593</v>
+        <v>0.1132634969236461</v>
       </c>
       <c r="P6">
-        <v>0.1547800842696593</v>
+        <v>0.07847165600527987</v>
       </c>
       <c r="Q6">
-        <v>1.517338334542236</v>
+        <v>1.66612700688</v>
       </c>
       <c r="R6">
-        <v>1.517338334542236</v>
+        <v>9.99676204128</v>
       </c>
       <c r="S6">
-        <v>0.1084358327784995</v>
+        <v>0.07758186352318332</v>
       </c>
       <c r="T6">
-        <v>0.1084358327784995</v>
+        <v>0.05375056811766881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.907735730411307</v>
+        <v>1.001453333333333</v>
       </c>
       <c r="H7">
-        <v>0.907735730411307</v>
+        <v>3.00436</v>
       </c>
       <c r="I7">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664583</v>
       </c>
       <c r="J7">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664584</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.385660944940309</v>
+        <v>0.8894906666666667</v>
       </c>
       <c r="N7">
-        <v>0.385660944940309</v>
+        <v>2.668472</v>
       </c>
       <c r="O7">
-        <v>0.08355543165095289</v>
+        <v>0.1316647303664537</v>
       </c>
       <c r="P7">
-        <v>0.08355543165095289</v>
+        <v>0.1368307050811258</v>
       </c>
       <c r="Q7">
-        <v>0.3500782195465063</v>
+        <v>0.8907833931022222</v>
       </c>
       <c r="R7">
-        <v>0.3500782195465063</v>
+        <v>8.017050537919999</v>
       </c>
       <c r="S7">
-        <v>0.02501816662108666</v>
+        <v>0.04147861198276116</v>
       </c>
       <c r="T7">
-        <v>0.02501816662108666</v>
+        <v>0.04310605966830502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.907735730411307</v>
+        <v>1.001453333333333</v>
       </c>
       <c r="H8">
-        <v>0.907735730411307</v>
+        <v>3.00436</v>
       </c>
       <c r="I8">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664583</v>
       </c>
       <c r="J8">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.43715949470739</v>
+        <v>1.929018</v>
       </c>
       <c r="N8">
-        <v>1.43715949470739</v>
+        <v>5.787053999999999</v>
       </c>
       <c r="O8">
-        <v>0.3113680125171274</v>
+        <v>0.2855382797818778</v>
       </c>
       <c r="P8">
-        <v>0.3113680125171274</v>
+        <v>0.2967416106155693</v>
       </c>
       <c r="Q8">
-        <v>1.304561023645757</v>
+        <v>1.93182150616</v>
       </c>
       <c r="R8">
-        <v>1.304561023645757</v>
+        <v>17.38639355544</v>
       </c>
       <c r="S8">
-        <v>0.09322980761049365</v>
+        <v>0.08995371410653208</v>
       </c>
       <c r="T8">
-        <v>0.09322980761049365</v>
+        <v>0.09348312256141462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.907735730411307</v>
+        <v>1.001453333333333</v>
       </c>
       <c r="H9">
-        <v>0.907735730411307</v>
+        <v>3.00436</v>
       </c>
       <c r="I9">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664583</v>
       </c>
       <c r="J9">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.08596046023676</v>
+        <v>1.949498666666667</v>
       </c>
       <c r="N9">
-        <v>1.08596046023676</v>
+        <v>5.848496</v>
       </c>
       <c r="O9">
-        <v>0.2352789314069486</v>
+        <v>0.2885698815236896</v>
       </c>
       <c r="P9">
-        <v>0.2352789314069486</v>
+        <v>0.2998921597618951</v>
       </c>
       <c r="Q9">
-        <v>0.9857651115708145</v>
+        <v>1.952331938062222</v>
       </c>
       <c r="R9">
-        <v>0.9857651115708145</v>
+        <v>17.57098744256</v>
       </c>
       <c r="S9">
-        <v>0.07044721560364449</v>
+        <v>0.09090876586553306</v>
       </c>
       <c r="T9">
-        <v>0.07044721560364449</v>
+        <v>0.09447564656696537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.907735730411307</v>
+        <v>1.001453333333333</v>
       </c>
       <c r="H10">
-        <v>0.907735730411307</v>
+        <v>3.00436</v>
       </c>
       <c r="I10">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664583</v>
       </c>
       <c r="J10">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.992441377856166</v>
+        <v>1.222540333333333</v>
       </c>
       <c r="N10">
-        <v>0.992441377856166</v>
+        <v>3.667621</v>
       </c>
       <c r="O10">
-        <v>0.2150175401553118</v>
+        <v>0.180963611404333</v>
       </c>
       <c r="P10">
-        <v>0.2150175401553118</v>
+        <v>0.1880638685361299</v>
       </c>
       <c r="Q10">
-        <v>0.9008744990186708</v>
+        <v>1.224317091951111</v>
       </c>
       <c r="R10">
-        <v>0.9008744990186708</v>
+        <v>11.01885382756</v>
       </c>
       <c r="S10">
-        <v>0.06438055001060407</v>
+        <v>0.05700934031116926</v>
       </c>
       <c r="T10">
-        <v>0.06438055001060407</v>
+        <v>0.05924614898216227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.907735730411307</v>
+        <v>1.001453333333333</v>
       </c>
       <c r="H11">
-        <v>0.907735730411307</v>
+        <v>3.00436</v>
       </c>
       <c r="I11">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664583</v>
       </c>
       <c r="J11">
-        <v>0.2994199913369886</v>
+        <v>0.3150320656664584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.714407578034416</v>
+        <v>0.765177</v>
       </c>
       <c r="N11">
-        <v>0.714407578034416</v>
+        <v>1.530354</v>
       </c>
       <c r="O11">
-        <v>0.1547800842696593</v>
+        <v>0.1132634969236461</v>
       </c>
       <c r="P11">
-        <v>0.1547800842696593</v>
+        <v>0.07847165600527987</v>
       </c>
       <c r="Q11">
-        <v>0.6484932846584434</v>
+        <v>0.76628905724</v>
       </c>
       <c r="R11">
-        <v>0.6484932846584434</v>
+        <v>4.59773434344</v>
       </c>
       <c r="S11">
-        <v>0.04634425149115974</v>
+        <v>0.03568163340046278</v>
       </c>
       <c r="T11">
-        <v>0.04634425149115974</v>
+        <v>0.02472108788761106</v>
       </c>
     </row>
   </sheetData>
